--- a/data/tableau.xlsx
+++ b/data/tableau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bip&amp;Go\Agences\LOGISTIQUE\Envois UK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdb27\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CAAF3D-7D29-4120-9154-63A006AF4279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CE2C0-FF52-40AB-A764-CD9041213F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE48B7B9-97D9-456B-BAC8-CC5FA8E45114}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DE48B7B9-97D9-456B-BAC8-CC5FA8E45114}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,49 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="185">
   <si>
-    <t>Civilité</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Raison sociale</t>
-  </si>
-  <si>
     <t>Complément de voie</t>
   </si>
   <si>
-    <t>Voie</t>
-  </si>
-  <si>
     <t>Lieu dit/Boite postale</t>
   </si>
   <si>
-    <t>Code postal</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
-  <si>
     <t>Pays</t>
   </si>
   <si>
-    <t>Code pays</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Téléphone</t>
-  </si>
-  <si>
     <t>Référence pli</t>
-  </si>
-  <si>
-    <t>Référence contact</t>
   </si>
   <si>
     <t>Poids total du pli (en gr)</t>
@@ -615,6 +585,36 @@
   </si>
   <si>
     <t>56 NORMANTON ROAD CROWLAND</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Civilite</t>
+  </si>
+  <si>
+    <t>RaisonSociale</t>
+  </si>
+  <si>
+    <t>CodePostal</t>
+  </si>
+  <si>
+    <t>Ville</t>
+  </si>
+  <si>
+    <t>code pays</t>
+  </si>
+  <si>
+    <t>EMail</t>
+  </si>
+  <si>
+    <t>TelMobile</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -718,9 +718,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -758,7 +758,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -864,7 +864,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1006,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1016,150 +1016,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33712536-28C4-4966-8735-C433A9AA2412}">
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:K31"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+    <col min="6" max="6" width="49.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.1328125" customWidth="1"/>
+    <col min="13" max="13" width="16.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -1174,51 +1174,51 @@
         <v>853080</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1233,51 +1233,51 @@
         <v>853080</v>
       </c>
       <c r="W3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1292,51 +1292,51 @@
         <v>853080</v>
       </c>
       <c r="W4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1351,52 +1351,52 @@
         <v>853080</v>
       </c>
       <c r="W5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="P6">
         <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1411,51 +1411,51 @@
         <v>853080</v>
       </c>
       <c r="W6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="P7">
         <v>100</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1470,51 +1470,51 @@
         <v>853080</v>
       </c>
       <c r="W7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P8">
         <v>100</v>
       </c>
       <c r="Q8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1529,51 +1529,51 @@
         <v>853080</v>
       </c>
       <c r="W8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P9">
         <v>100</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1588,52 +1588,52 @@
         <v>853080</v>
       </c>
       <c r="W9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="P10">
         <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1648,51 +1648,51 @@
         <v>853080</v>
       </c>
       <c r="W10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P11">
         <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1707,51 +1707,51 @@
         <v>853080</v>
       </c>
       <c r="W11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="P12">
         <v>100</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -1766,51 +1766,51 @@
         <v>392690</v>
       </c>
       <c r="W12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="P13">
         <v>100</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1825,51 +1825,51 @@
         <v>853080</v>
       </c>
       <c r="W13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="P14">
         <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1884,51 +1884,51 @@
         <v>853080</v>
       </c>
       <c r="W14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="P15">
         <v>100</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1943,52 +1943,52 @@
         <v>853080</v>
       </c>
       <c r="W15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="P16">
         <v>100</v>
       </c>
       <c r="Q16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -2003,51 +2003,51 @@
         <v>853080</v>
       </c>
       <c r="W16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P17">
         <v>100</v>
       </c>
       <c r="Q17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -2062,51 +2062,51 @@
         <v>853080</v>
       </c>
       <c r="W17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="P18">
         <v>100</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2121,51 +2121,51 @@
         <v>853080</v>
       </c>
       <c r="W18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="P19">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N19" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19">
-        <v>100</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" t="s">
-        <v>39</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2180,51 +2180,51 @@
         <v>853080</v>
       </c>
       <c r="W19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="P20">
         <v>100</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -2239,10 +2239,10 @@
         <v>853080</v>
       </c>
       <c r="W20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="F21" s="6"/>
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
@@ -2250,10 +2250,10 @@
         <v>100</v>
       </c>
       <c r="Q21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2268,20 +2268,20 @@
         <v>853080</v>
       </c>
       <c r="W21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="F22" s="6"/>
       <c r="M22"/>
       <c r="P22">
         <v>100</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2296,19 +2296,19 @@
         <v>853080</v>
       </c>
       <c r="W22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M23"/>
       <c r="P23">
         <v>100</v>
       </c>
       <c r="Q23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2323,19 +2323,19 @@
         <v>853080</v>
       </c>
       <c r="W23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M24"/>
       <c r="P24">
         <v>100</v>
       </c>
       <c r="Q24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2350,19 +2350,19 @@
         <v>853080</v>
       </c>
       <c r="W24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M25"/>
       <c r="P25">
         <v>100</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2377,19 +2377,19 @@
         <v>853080</v>
       </c>
       <c r="W25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M26"/>
       <c r="P26">
         <v>100</v>
       </c>
       <c r="Q26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2404,19 +2404,19 @@
         <v>853080</v>
       </c>
       <c r="W26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M27"/>
       <c r="P27">
         <v>100</v>
       </c>
       <c r="Q27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -2431,19 +2431,19 @@
         <v>853080</v>
       </c>
       <c r="W27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M28"/>
       <c r="P28">
         <v>100</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2458,19 +2458,19 @@
         <v>853080</v>
       </c>
       <c r="W28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M29"/>
       <c r="P29">
         <v>100</v>
       </c>
       <c r="Q29" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2485,19 +2485,19 @@
         <v>853080</v>
       </c>
       <c r="W29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M30"/>
       <c r="P30">
         <v>100</v>
       </c>
       <c r="Q30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2512,19 +2512,19 @@
         <v>853080</v>
       </c>
       <c r="W30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M31"/>
       <c r="P31">
         <v>100</v>
       </c>
       <c r="Q31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2539,19 +2539,19 @@
         <v>853080</v>
       </c>
       <c r="W31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="M32"/>
       <c r="P32">
         <v>100</v>
       </c>
       <c r="Q32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2566,19 +2566,19 @@
         <v>853080</v>
       </c>
       <c r="W32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M33"/>
       <c r="P33">
         <v>100</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2593,19 +2593,19 @@
         <v>853080</v>
       </c>
       <c r="W33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M34"/>
       <c r="P34">
         <v>100</v>
       </c>
       <c r="Q34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2620,19 +2620,19 @@
         <v>853080</v>
       </c>
       <c r="W34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M35"/>
       <c r="P35">
         <v>100</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2647,19 +2647,19 @@
         <v>853080</v>
       </c>
       <c r="W35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M36"/>
       <c r="P36">
         <v>100</v>
       </c>
       <c r="Q36" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R36" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2674,19 +2674,19 @@
         <v>853080</v>
       </c>
       <c r="W36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M37"/>
       <c r="P37">
         <v>100</v>
       </c>
       <c r="Q37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R37" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2701,19 +2701,19 @@
         <v>853080</v>
       </c>
       <c r="W37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M38"/>
       <c r="P38">
         <v>100</v>
       </c>
       <c r="Q38" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R38" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2728,19 +2728,19 @@
         <v>853080</v>
       </c>
       <c r="W38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M39"/>
       <c r="P39">
         <v>100</v>
       </c>
       <c r="Q39" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R39" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -2755,19 +2755,19 @@
         <v>853080</v>
       </c>
       <c r="W39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M40"/>
       <c r="P40">
         <v>100</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R40" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2782,19 +2782,19 @@
         <v>853080</v>
       </c>
       <c r="W40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M41"/>
       <c r="P41">
         <v>100</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="R41" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -2809,19 +2809,19 @@
         <v>853080</v>
       </c>
       <c r="W41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M42"/>
       <c r="P42">
         <v>100</v>
       </c>
       <c r="Q42" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R42" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -2836,19 +2836,19 @@
         <v>853080</v>
       </c>
       <c r="W42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M43"/>
       <c r="P43">
         <v>100</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -2863,19 +2863,19 @@
         <v>853080</v>
       </c>
       <c r="W43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M44"/>
       <c r="P44">
         <v>100</v>
       </c>
       <c r="Q44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R44" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -2890,19 +2890,19 @@
         <v>853080</v>
       </c>
       <c r="W44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M45"/>
       <c r="P45">
         <v>100</v>
       </c>
       <c r="Q45" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -2917,19 +2917,19 @@
         <v>853080</v>
       </c>
       <c r="W45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M46"/>
       <c r="P46">
         <v>100</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R46" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -2944,19 +2944,19 @@
         <v>853080</v>
       </c>
       <c r="W46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M47"/>
       <c r="P47">
         <v>100</v>
       </c>
       <c r="Q47" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="R47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -2971,19 +2971,19 @@
         <v>853080</v>
       </c>
       <c r="W47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M48"/>
       <c r="P48">
         <v>100</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R48" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -2998,19 +2998,19 @@
         <v>853080</v>
       </c>
       <c r="W48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M49"/>
       <c r="P49">
         <v>100</v>
       </c>
       <c r="Q49" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R49" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -3025,19 +3025,19 @@
         <v>853080</v>
       </c>
       <c r="W49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M50"/>
       <c r="P50">
         <v>100</v>
       </c>
       <c r="Q50" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R50" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -3052,19 +3052,19 @@
         <v>853080</v>
       </c>
       <c r="W50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="13:23" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="13:23" x14ac:dyDescent="0.45">
       <c r="M51"/>
       <c r="P51">
         <v>100</v>
       </c>
       <c r="Q51" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R51" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>853080</v>
       </c>
       <c r="W51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="13:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M69" s="5"/>
     </row>
   </sheetData>
